--- a/qa-stockwell/bin/test/TestData.xlsx
+++ b/qa-stockwell/bin/test/TestData.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B9F5B432-EC7D-4FE8-9FFA-E1E05C5BFB31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Stockwell\StockwellAutomation\qa-stockwell\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEFDAD-3927-4924-8008-597BFEA78E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="5610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TransactionReviewTool" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -30,6 +35,27 @@
   </si>
   <si>
     <t>Padma</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Stockwell</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Video Status</t>
   </si>
 </sst>
 </file>
@@ -349,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -377,4 +403,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4257E1BD-FCB0-410F-9110-A4A12F861BC6}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qa-stockwell/bin/test/TestData.xlsx
+++ b/qa-stockwell/bin/test/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Stockwell\StockwellAutomation\qa-stockwell\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEFDAD-3927-4924-8008-597BFEA78E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BBA44706-F7A9-4435-8F55-FB843E298B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="5610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="4680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TransactionReviewTool" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +52,18 @@
   </si>
   <si>
     <t>Video Status</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Item inference</t>
+  </si>
+  <si>
+    <t>Uploading</t>
+  </si>
+  <si>
+    <t>Processing Segments</t>
   </si>
 </sst>
 </file>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4257E1BD-FCB0-410F-9110-A4A12F861BC6}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,6 +452,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
